--- a/Report/Chek-list.xlsx
+++ b/Report/Chek-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksenia\vs java script\diplom\my aqa-diplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksenia\vs java script\diplom\my aqa-diplom\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="230">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Ввод невалидного пароля и логина на латинице</t>
   </si>
   <si>
-    <t>Ввод пароля и логина на кирилице</t>
-  </si>
-  <si>
     <t>Ввод невалидного логина и валидного пароля</t>
   </si>
   <si>
@@ -5801,13 +5798,28 @@
   </si>
   <si>
     <t xml:space="preserve">Экран "Love is All"  </t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5881,8 +5893,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5957,7 +5974,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6002,7 +6025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6012,41 +6035,20 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6066,19 +6068,11 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6102,32 +6096,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6137,8 +6105,59 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6146,9 +6165,32 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6368,10 +6410,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y269"/>
+  <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6386,284 +6428,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="46"/>
+      <c r="C7" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-    </row>
-    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
+      <c r="C9" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-    </row>
-    <row r="12" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
+      <c r="C12" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="52"/>
+      <c r="C15" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="C16" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="52"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
+      <c r="C17" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="52"/>
-    </row>
-    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="C18" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="52"/>
-    </row>
-    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="C19" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="35"/>
+      <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15" t="s">
+      <c r="C20" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="35"/>
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15" t="s">
+      <c r="C21" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="35"/>
+      <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15" t="s">
+      <c r="C22" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15" t="s">
+      <c r="C23" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="15" t="s">
+      <c r="C24" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A25" s="35"/>
+      <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15" t="s">
+      <c r="C25" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C26" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="21" t="s">
+      <c r="C27" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="21" t="s">
+      <c r="C28" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="36"/>
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="21" t="s">
+      <c r="C29" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="36"/>
+      <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="21" t="s">
+      <c r="C30" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+      <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C31" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-    </row>
-    <row r="33" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C32" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+    </row>
+    <row r="33" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>229</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -6688,1712 +6875,2379 @@
     </row>
     <row r="34" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="C34" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="36" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
+      <c r="C36" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="37" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
+      <c r="C37" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="38" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="39" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-    </row>
-    <row r="40" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C39" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="C40" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="41" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
+      <c r="C41" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="42" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
+      <c r="B42" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="47"/>
+      <c r="B43" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-    </row>
-    <row r="44" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54" t="s">
+      <c r="C43" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A44" s="47"/>
+      <c r="B44" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
+      <c r="C44" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
+      <c r="C45" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="46" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
+      <c r="C46" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="47" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-    </row>
-    <row r="48" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54" t="s">
+      <c r="C47" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
+      <c r="C48" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-    </row>
-    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54" t="s">
+      <c r="C49" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-    </row>
-    <row r="51" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+      <c r="B50" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C50" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
+      <c r="B51" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="21" t="s">
+      <c r="C51" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="36"/>
+      <c r="B52" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="5"/>
+      <c r="C52" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="21" t="s">
+      <c r="C54" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="36"/>
+      <c r="B55" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="5"/>
+      <c r="C56" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="21" t="s">
+      <c r="C57" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="21" t="s">
+      <c r="C58" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
+      <c r="B59" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="21" t="s">
+      <c r="C60" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="42"/>
-      <c r="D61" s="5"/>
+      <c r="C61" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="5"/>
+      <c r="C62" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="36"/>
+      <c r="B64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="21" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="5"/>
+      <c r="C65" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="21" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="5"/>
+      <c r="C66" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="21" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="21" t="s">
+      <c r="C67" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="36"/>
+      <c r="B68" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="5"/>
+      <c r="C68" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="41"/>
-      <c r="B70" s="21" t="s">
+      <c r="C69" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="36"/>
+      <c r="B70" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="5"/>
+      <c r="C70" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="5"/>
+      <c r="C71" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="36"/>
+      <c r="B72" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="21" t="s">
+      <c r="C72" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
+      <c r="B73" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="21" t="s">
+      <c r="C73" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="36"/>
+      <c r="B74" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="21" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="5"/>
+      <c r="C75" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="21" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="42"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="21" t="s">
+      <c r="C76" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36"/>
+      <c r="B77" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="5"/>
+      <c r="C77" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="21" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="5"/>
+      <c r="C78" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="41"/>
-      <c r="B79" s="21" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="5"/>
+      <c r="C79" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="41"/>
-      <c r="B80" s="21" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="41"/>
-      <c r="B81" s="21" t="s">
+      <c r="C80" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="5"/>
+      <c r="B81" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82" s="19" t="s">
+      <c r="A82" s="34"/>
+      <c r="B82" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="40"/>
+      <c r="C82" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="38"/>
-      <c r="B83" s="19" t="s">
+      <c r="A83" s="34"/>
+      <c r="B83" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
+      <c r="C83" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="38"/>
-      <c r="B84" s="19" t="s">
+      <c r="A84" s="34"/>
+      <c r="B84" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="38"/>
-      <c r="B85" s="19" t="s">
+      <c r="A85" s="34"/>
+      <c r="B85" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40"/>
+      <c r="C85" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="38"/>
-      <c r="B86" s="19" t="s">
+      <c r="A86" s="34"/>
+      <c r="B86" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
-    </row>
-    <row r="87" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A87" s="38"/>
-      <c r="B87" s="19" t="s">
+      <c r="C86" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="34"/>
+      <c r="B87" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="40"/>
+      <c r="C87" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="38"/>
-      <c r="B88" s="19" t="s">
+      <c r="A88" s="34"/>
+      <c r="B88" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="40"/>
-    </row>
-    <row r="89" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38"/>
-      <c r="B89" s="19" t="s">
+      <c r="C88" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A89" s="34"/>
+      <c r="B89" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="39"/>
-      <c r="D89" s="40"/>
+      <c r="C89" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="38"/>
-      <c r="B90" s="19" t="s">
+      <c r="A90" s="34"/>
+      <c r="B90" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
+      <c r="C90" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="38"/>
-      <c r="B91" s="19" t="s">
+      <c r="A91" s="34"/>
+      <c r="B91" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="40"/>
+      <c r="C91" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="38"/>
-      <c r="B92" s="19" t="s">
+      <c r="A92" s="34"/>
+      <c r="B92" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="40"/>
+      <c r="C92" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="20" t="s">
+      <c r="A93" s="34"/>
+      <c r="B93" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="39"/>
-      <c r="D93" s="40"/>
+      <c r="C93" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="34"/>
+      <c r="B94" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="39"/>
-      <c r="D94" s="40"/>
+      <c r="C94" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="19" t="s">
+      <c r="A95" s="34"/>
+      <c r="B95" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
+      <c r="C95" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="19" t="s">
+      <c r="A96" s="34"/>
+      <c r="B96" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="40"/>
+      <c r="C96" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="19" t="s">
+      <c r="A97" s="34"/>
+      <c r="B97" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="40"/>
+      <c r="C97" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="19" t="s">
+      <c r="A98" s="34"/>
+      <c r="B98" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="40"/>
+      <c r="C98" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="19" t="s">
+      <c r="A99" s="34"/>
+      <c r="B99" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="40"/>
-    </row>
-    <row r="100" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="19" t="s">
+      <c r="C99" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="34"/>
+      <c r="B100" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="40"/>
+      <c r="C100" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="19" t="s">
+      <c r="A101" s="34"/>
+      <c r="B101" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
+      <c r="C101" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="38"/>
-      <c r="B102" s="19" t="s">
+      <c r="A102" s="34"/>
+      <c r="B102" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="40"/>
+      <c r="C102" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38"/>
-      <c r="B103" s="19" t="s">
+      <c r="A103" s="34"/>
+      <c r="B103" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="40"/>
+      <c r="C103" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="38"/>
-      <c r="B104" s="19" t="s">
+      <c r="A104" s="34"/>
+      <c r="B104" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="40"/>
-    </row>
-    <row r="105" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="19" t="s">
+      <c r="C104" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A105" s="34"/>
+      <c r="B105" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="40"/>
-    </row>
-    <row r="106" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A106" s="38"/>
-      <c r="B106" s="19" t="s">
+      <c r="C105" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="34"/>
+      <c r="B106" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="40"/>
-    </row>
-    <row r="107" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="38"/>
-      <c r="B107" s="19" t="s">
+      <c r="C106" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A107" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C107" s="39"/>
-      <c r="D107" s="40"/>
+      <c r="B107" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B108" s="17" t="s">
+      <c r="A108" s="39"/>
+      <c r="B108" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="1"/>
+      <c r="C108" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
-      <c r="B109" s="17" t="s">
+      <c r="A109" s="39"/>
+      <c r="B109" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="17" t="s">
+      <c r="C109" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="39"/>
+      <c r="B110" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="17" t="s">
+      <c r="C110" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A111" s="39"/>
+      <c r="B111" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="1"/>
+      <c r="C111" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="112" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
-      <c r="B112" s="17" t="s">
+      <c r="A112" s="39"/>
+      <c r="B112" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="1"/>
+      <c r="C112" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
-      <c r="B113" s="17" t="s">
+      <c r="A113" s="39"/>
+      <c r="B113" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="1"/>
+      <c r="C113" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
-      <c r="B114" s="17" t="s">
+      <c r="A114" s="39"/>
+      <c r="B114" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="1"/>
+      <c r="C114" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="18" t="s">
+      <c r="A115" s="39"/>
+      <c r="B115" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="1"/>
+      <c r="C115" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
-      <c r="B116" s="17" t="s">
+      <c r="A116" s="39"/>
+      <c r="B116" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A117" s="39"/>
+      <c r="B117" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
-      <c r="B117" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="1"/>
+      <c r="C117" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
-      <c r="B118" s="17" t="s">
+      <c r="A118" s="39"/>
+      <c r="B118" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="1"/>
+      <c r="C118" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="17" t="s">
+      <c r="A119" s="39"/>
+      <c r="B119" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="17" t="s">
+      <c r="A120" s="39"/>
+      <c r="B120" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="17" t="s">
+      <c r="A121" s="39"/>
+      <c r="B121" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="17" t="s">
+      <c r="C121" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="39"/>
+      <c r="B122" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16"/>
-      <c r="B123" s="17" t="s">
+      <c r="C122" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+      <c r="B123" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="23"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
-      <c r="B124" s="17" t="s">
+      <c r="A124" s="39"/>
+      <c r="B124" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="23"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16"/>
-      <c r="B125" s="17" t="s">
+      <c r="A125" s="39"/>
+      <c r="B125" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="23"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16"/>
-      <c r="B126" s="17" t="s">
+      <c r="A126" s="39"/>
+      <c r="B126" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="23"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16"/>
-      <c r="B127" s="17" t="s">
+      <c r="C126" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A127" s="39"/>
+      <c r="B127" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="23"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A128" s="16"/>
-      <c r="B128" s="17" t="s">
+      <c r="C127" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="39"/>
+      <c r="B128" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
-      <c r="B129" s="17" t="s">
+      <c r="C128" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="39"/>
+      <c r="B129" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="23"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
-      <c r="B130" s="17" t="s">
+      <c r="C129" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="30" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C130" s="23"/>
-      <c r="D130" s="1"/>
+      <c r="B130" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" s="21" t="s">
+      <c r="A131" s="36"/>
+      <c r="B131" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="42"/>
-      <c r="D131" s="5"/>
+      <c r="C131" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="132" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="21" t="s">
+      <c r="A132" s="36"/>
+      <c r="B132" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="42"/>
-      <c r="D132" s="5"/>
-    </row>
-    <row r="133" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="41"/>
-      <c r="B133" s="21" t="s">
+      <c r="C132" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="C133" s="42"/>
-      <c r="D133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+      <c r="B133" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="B134" s="14" t="s">
+      <c r="C133" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="53"/>
+      <c r="B134" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
-    </row>
-    <row r="135" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="12"/>
-      <c r="B135" s="14" t="s">
+      <c r="C134" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="53"/>
+      <c r="B135" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
-    </row>
-    <row r="136" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
-      <c r="B136" s="14" t="s">
+      <c r="C135" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D135" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="53"/>
+      <c r="B136" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
+      <c r="C136" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="56" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="137" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
-      <c r="B137" s="14" t="s">
+      <c r="A137" s="53"/>
+      <c r="B137" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
-    </row>
-    <row r="138" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="12"/>
-      <c r="B138" s="14" t="s">
+      <c r="C137" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D137" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="53"/>
+      <c r="B138" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="43"/>
-      <c r="D138" s="44"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="12"/>
-      <c r="B139" s="14" t="s">
+      <c r="C138" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="53"/>
+      <c r="B139" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="43"/>
-      <c r="D139" s="44"/>
-    </row>
-    <row r="140" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="12"/>
-      <c r="B140" s="14" t="s">
+      <c r="C139" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A140" s="53"/>
+      <c r="B140" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="43"/>
-      <c r="D140" s="44"/>
-    </row>
-    <row r="141" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A141" s="12"/>
-      <c r="B141" s="14" t="s">
+      <c r="C140" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D140" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="53"/>
+      <c r="B141" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="43"/>
-      <c r="D141" s="44"/>
+      <c r="C141" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="56" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="12"/>
-      <c r="B142" s="14" t="s">
+      <c r="A142" s="53"/>
+      <c r="B142" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="44"/>
+      <c r="C142" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="56" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="12"/>
-      <c r="B143" s="14" t="s">
+      <c r="A143" s="53"/>
+      <c r="B143" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="44"/>
-    </row>
-    <row r="144" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="12"/>
-      <c r="B144" s="14" t="s">
+      <c r="C143" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A144" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="43"/>
-      <c r="D144" s="44"/>
+      <c r="C144" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="37"/>
+      <c r="B145" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A146" s="37"/>
+      <c r="B146" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="37"/>
+      <c r="B147" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A148" s="37"/>
+      <c r="B148" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A149" s="37"/>
+      <c r="B149" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="37"/>
+      <c r="B150" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C150" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A151" s="37"/>
+      <c r="B151" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C151" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A152" s="37"/>
+      <c r="B152" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A153" s="37"/>
+      <c r="B153" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C153" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A154" s="37"/>
+      <c r="B154" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A155" s="37"/>
+      <c r="B155" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D155" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A156" s="37"/>
+      <c r="B156" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C156" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A157" s="37"/>
+      <c r="B157" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="37"/>
+      <c r="B158" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="37"/>
+      <c r="B159" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="37"/>
+      <c r="B160" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D160" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="37"/>
+      <c r="B161" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D161" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="37"/>
+      <c r="B162" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C162" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A163" s="37"/>
+      <c r="B163" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="37"/>
+      <c r="B164" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D164" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A165" s="37"/>
+      <c r="B165" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A166" s="37"/>
+      <c r="B166" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C166" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A167" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="41"/>
+      <c r="B168" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A169" s="41"/>
+      <c r="B169" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A170" s="41"/>
+      <c r="B170" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A171" s="41"/>
+      <c r="B171" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A172" s="41"/>
+      <c r="B172" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A173" s="41"/>
+      <c r="B173" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A174" s="41"/>
+      <c r="B174" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D174" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D175" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A176" s="41"/>
+      <c r="B176" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A177" s="41"/>
+      <c r="B177" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C177" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A178" s="41"/>
+      <c r="B178" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A179" s="41"/>
+      <c r="B179" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D179" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A180" s="41"/>
+      <c r="B180" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A181" s="41"/>
+      <c r="B181" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D181" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A182" s="41"/>
+      <c r="B182" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C182" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D182" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A183" s="41"/>
+      <c r="B183" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A184" s="41"/>
+      <c r="B184" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C184" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D184" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A185" s="41"/>
+      <c r="B185" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D185" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A186" s="41"/>
+      <c r="B186" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D186" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="41"/>
+      <c r="B187" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C187" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="41"/>
+      <c r="B188" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D188" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="41"/>
+      <c r="B189" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D189" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="41"/>
+      <c r="B190" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C190" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="41"/>
+      <c r="B191" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A192" s="41"/>
+      <c r="B192" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="41"/>
+      <c r="B193" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C145" s="45"/>
-      <c r="D145" s="46"/>
-    </row>
-    <row r="146" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A146" s="7"/>
-      <c r="B146" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C146" s="45"/>
-      <c r="D146" s="46"/>
-    </row>
-    <row r="147" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A147" s="7"/>
-      <c r="B147" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C147" s="45"/>
-      <c r="D147" s="46"/>
-    </row>
-    <row r="148" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="7"/>
-      <c r="B148" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C148" s="45"/>
-      <c r="D148" s="46"/>
-    </row>
-    <row r="149" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A149" s="7"/>
-      <c r="B149" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C149" s="45"/>
-      <c r="D149" s="46"/>
-    </row>
-    <row r="150" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A150" s="7"/>
-      <c r="B150" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C150" s="45"/>
-      <c r="D150" s="46"/>
-    </row>
-    <row r="151" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="7"/>
-      <c r="B151" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C151" s="45"/>
-      <c r="D151" s="46"/>
-    </row>
-    <row r="152" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A152" s="7"/>
-      <c r="B152" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="45"/>
-      <c r="D152" s="46"/>
-    </row>
-    <row r="153" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A153" s="7"/>
-      <c r="B153" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C153" s="45"/>
-      <c r="D153" s="46"/>
-    </row>
-    <row r="154" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A154" s="7"/>
-      <c r="B154" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C154" s="45"/>
-      <c r="D154" s="46"/>
-    </row>
-    <row r="155" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A155" s="7"/>
-      <c r="B155" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="45"/>
-      <c r="D155" s="46"/>
-    </row>
-    <row r="156" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A156" s="7"/>
-      <c r="B156" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="45"/>
-      <c r="D156" s="46"/>
-    </row>
-    <row r="157" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A157" s="7"/>
-      <c r="B157" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C157" s="45"/>
-      <c r="D157" s="46"/>
-    </row>
-    <row r="158" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A158" s="7"/>
-      <c r="B158" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="45"/>
-      <c r="D158" s="46"/>
-    </row>
-    <row r="159" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="7"/>
-      <c r="B159" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C159" s="45"/>
-      <c r="D159" s="46"/>
-    </row>
-    <row r="160" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="7"/>
-      <c r="B160" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="45"/>
-      <c r="D160" s="46"/>
-    </row>
-    <row r="161" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="7"/>
-      <c r="B161" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C161" s="45"/>
-      <c r="D161" s="46"/>
-    </row>
-    <row r="162" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="7"/>
-      <c r="B162" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C162" s="45"/>
-      <c r="D162" s="46"/>
-    </row>
-    <row r="163" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="7"/>
-      <c r="B163" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C163" s="45"/>
-      <c r="D163" s="46"/>
-    </row>
-    <row r="164" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A164" s="7"/>
-      <c r="B164" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C164" s="45"/>
-      <c r="D164" s="46"/>
-    </row>
-    <row r="165" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="7"/>
-      <c r="B165" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="45"/>
-      <c r="D165" s="46"/>
-    </row>
-    <row r="166" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A166" s="7"/>
-      <c r="B166" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C166" s="45"/>
-      <c r="D166" s="46"/>
-    </row>
-    <row r="167" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A167" s="7"/>
-      <c r="B167" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C167" s="45"/>
-      <c r="D167" s="46"/>
-    </row>
-    <row r="168" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A168" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B168" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="42"/>
-      <c r="D168" s="5"/>
-    </row>
-    <row r="169" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="47"/>
-      <c r="B169" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="42"/>
-      <c r="D169" s="5"/>
-    </row>
-    <row r="170" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="47"/>
-      <c r="B170" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="42"/>
-      <c r="D170" s="5"/>
-    </row>
-    <row r="171" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="47"/>
-      <c r="B171" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="42"/>
-      <c r="D171" s="5"/>
-    </row>
-    <row r="172" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A172" s="47"/>
-      <c r="B172" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="42"/>
-      <c r="D172" s="5"/>
-    </row>
-    <row r="173" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="47"/>
-      <c r="B173" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="42"/>
-      <c r="D173" s="5"/>
-    </row>
-    <row r="174" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="47"/>
-      <c r="B174" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="42"/>
-      <c r="D174" s="5"/>
-    </row>
-    <row r="175" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A175" s="47"/>
-      <c r="B175" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C175" s="42"/>
-      <c r="D175" s="5"/>
-    </row>
-    <row r="176" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="47"/>
-      <c r="B176" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C176" s="42"/>
-      <c r="D176" s="5"/>
-    </row>
-    <row r="177" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="47"/>
-      <c r="B177" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C177" s="42"/>
-      <c r="D177" s="5"/>
-    </row>
-    <row r="178" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="47"/>
-      <c r="B178" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C178" s="42"/>
-      <c r="D178" s="5"/>
-    </row>
-    <row r="179" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="47"/>
-      <c r="B179" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C179" s="42"/>
-      <c r="D179" s="5"/>
-    </row>
-    <row r="180" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="47"/>
-      <c r="B180" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C180" s="42"/>
-      <c r="D180" s="5"/>
-    </row>
-    <row r="181" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="47"/>
-      <c r="B181" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="C181" s="42"/>
-      <c r="D181" s="5"/>
-    </row>
-    <row r="182" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A182" s="47"/>
-      <c r="B182" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="C182" s="42"/>
-      <c r="D182" s="5"/>
-    </row>
-    <row r="183" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="47"/>
-      <c r="B183" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C183" s="42"/>
-      <c r="D183" s="5"/>
-    </row>
-    <row r="184" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="47"/>
-      <c r="B184" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="C184" s="42"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="47"/>
-      <c r="B185" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="C185" s="42"/>
-      <c r="D185" s="5"/>
-    </row>
-    <row r="186" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="47"/>
-      <c r="B186" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C186" s="42"/>
-      <c r="D186" s="5"/>
-    </row>
-    <row r="187" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A187" s="47"/>
-      <c r="B187" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C187" s="42"/>
-      <c r="D187" s="5"/>
-    </row>
-    <row r="188" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="47"/>
-      <c r="B188" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C188" s="42"/>
-      <c r="D188" s="5"/>
-    </row>
-    <row r="189" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="47"/>
-      <c r="B189" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C189" s="42"/>
-      <c r="D189" s="42"/>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="47"/>
-      <c r="B190" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C190" s="42"/>
-      <c r="D190" s="42"/>
-    </row>
-    <row r="191" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="47"/>
-      <c r="B191" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C191" s="42"/>
-      <c r="D191" s="42"/>
-    </row>
-    <row r="192" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="47"/>
-      <c r="B192" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="C192" s="42"/>
-      <c r="D192" s="42"/>
-    </row>
-    <row r="193" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A193" s="47"/>
-      <c r="B193" s="21" t="s">
+      <c r="C193" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A194" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C193" s="42"/>
-      <c r="D193" s="42"/>
-    </row>
-    <row r="194" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="47"/>
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C194" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="40"/>
+      <c r="B195" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C195" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D195" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A196" s="40"/>
+      <c r="B196" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C196" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="40"/>
+      <c r="B197" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A198" s="40"/>
+      <c r="B198" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C198" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D198" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A199" s="40"/>
+      <c r="B199" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C199" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D199" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="40"/>
+      <c r="B200" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D200" s="52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D201" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="37"/>
+      <c r="B202" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="37"/>
+      <c r="B203" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D203" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="37"/>
+      <c r="B204" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204" s="30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C194" s="42"/>
-      <c r="D194" s="42"/>
-    </row>
-    <row r="195" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B195" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C195" s="48"/>
-      <c r="D195" s="48"/>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C196" s="48"/>
-      <c r="D196" s="48"/>
-    </row>
-    <row r="197" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C197" s="48"/>
-      <c r="D197" s="48"/>
-    </row>
-    <row r="198" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="10"/>
-      <c r="B198" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" s="48"/>
-      <c r="D198" s="48"/>
-    </row>
-    <row r="199" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48"/>
-    </row>
-    <row r="200" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A200" s="10"/>
-      <c r="B200" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="48"/>
-      <c r="D200" s="48"/>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C201" s="48"/>
-      <c r="D201" s="48"/>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C202" s="45"/>
-      <c r="D202" s="45"/>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="7"/>
-      <c r="B203" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C203" s="45"/>
-      <c r="D203" s="45"/>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="7"/>
-      <c r="B204" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C204" s="45"/>
-      <c r="D204" s="45"/>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="7"/>
-      <c r="B205" s="9" t="s">
+      <c r="B205" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C205" s="45"/>
-      <c r="D205" s="45"/>
+      <c r="C205" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D205" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B206" s="15" t="s">
+      <c r="A206" s="38"/>
+      <c r="B206" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
+      <c r="C206" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D206" s="31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
-      <c r="B207" s="15" t="s">
+      <c r="A207" s="38"/>
+      <c r="B207" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C207" s="24"/>
-      <c r="D207" s="24"/>
+      <c r="C207" s="46" t="s">
+        <v>225</v>
+      </c>
+      <c r="D207" s="31" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
-      <c r="B208" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C208" s="24"/>
-      <c r="D208" s="24"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="17"/>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="26"/>
-      <c r="B209" s="27"/>
+      <c r="A209" s="16"/>
+      <c r="B209" s="17"/>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="26"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="16"/>
+      <c r="B210" s="17"/>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="26"/>
-      <c r="B211" s="27"/>
+      <c r="A211" s="16"/>
+      <c r="B211" s="17"/>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="26"/>
-      <c r="B212" s="27"/>
+      <c r="A212" s="16"/>
+      <c r="B212" s="17"/>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="26"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="16"/>
+      <c r="B213" s="17"/>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="27"/>
+      <c r="A214" s="33"/>
+      <c r="B214" s="18"/>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="28"/>
-      <c r="B215" s="29"/>
+      <c r="A215" s="33"/>
+      <c r="B215" s="18"/>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="28"/>
-      <c r="B216" s="29"/>
+      <c r="A216" s="33"/>
+      <c r="B216" s="18"/>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="28"/>
-      <c r="B217" s="29"/>
+      <c r="A217" s="33"/>
+      <c r="B217" s="19"/>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="28"/>
-      <c r="B218" s="30"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="19"/>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="28"/>
-      <c r="B219" s="30"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="19"/>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="28"/>
-      <c r="B220" s="30"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="19"/>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="28"/>
-      <c r="B221" s="30"/>
+      <c r="A221" s="33"/>
+      <c r="B221" s="19"/>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="28"/>
-      <c r="B222" s="30"/>
+      <c r="A222" s="33"/>
+      <c r="B222" s="19"/>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="28"/>
-      <c r="B223" s="30"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="21"/>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="31"/>
-      <c r="B224" s="32"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="21"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="31"/>
-      <c r="B225" s="32"/>
+      <c r="A225" s="20"/>
+      <c r="B225" s="21"/>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="31"/>
-      <c r="B226" s="32"/>
+      <c r="A226" s="20"/>
+      <c r="B226" s="21"/>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="31"/>
-      <c r="B227" s="32"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="21"/>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="31"/>
-      <c r="B228" s="32"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="21"/>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="31"/>
-      <c r="B229" s="32"/>
+      <c r="A229" s="20"/>
+      <c r="B229" s="21"/>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="31"/>
-      <c r="B230" s="32"/>
+      <c r="A230" s="20"/>
+      <c r="B230" s="21"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="31"/>
-      <c r="B231" s="32"/>
+      <c r="A231" s="20"/>
+      <c r="B231" s="21"/>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="31"/>
-      <c r="B232" s="32"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="21"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="31"/>
-      <c r="B233" s="32"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="21"/>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="31"/>
-      <c r="B234" s="32"/>
+      <c r="A234" s="20"/>
+      <c r="B234" s="21"/>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="31"/>
-      <c r="B235" s="32"/>
+      <c r="A235" s="20"/>
+      <c r="B235" s="21"/>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="31"/>
-      <c r="B236" s="32"/>
+      <c r="A236" s="20"/>
+      <c r="B236" s="21"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="31"/>
-      <c r="B237" s="32"/>
+      <c r="A237" s="20"/>
+      <c r="B237" s="21"/>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="31"/>
-      <c r="B238" s="32"/>
+      <c r="A238" s="20"/>
+      <c r="B238" s="21"/>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="31"/>
-      <c r="B239" s="32"/>
+      <c r="A239" s="20"/>
+      <c r="B239" s="21"/>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="31"/>
-      <c r="B240" s="32"/>
+      <c r="A240" s="20"/>
+      <c r="B240" s="21"/>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="31"/>
-      <c r="B241" s="32"/>
+      <c r="A241" s="20"/>
+      <c r="B241" s="21"/>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="31"/>
-      <c r="B242" s="32"/>
+      <c r="A242" s="20"/>
+      <c r="B242" s="21"/>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="31"/>
-      <c r="B243" s="32"/>
+      <c r="A243" s="20"/>
+      <c r="B243" s="21"/>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="31"/>
-      <c r="B244" s="32"/>
+      <c r="A244" s="20"/>
+      <c r="B244" s="21"/>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="31"/>
-      <c r="B245" s="32"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="21"/>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="31"/>
-      <c r="B246" s="32"/>
+      <c r="A246" s="20"/>
+      <c r="B246" s="21"/>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="31"/>
-      <c r="B247" s="32"/>
+      <c r="A247" s="20"/>
+      <c r="B247" s="21"/>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="31"/>
-      <c r="B248" s="32"/>
+      <c r="A248" s="20"/>
+      <c r="B248" s="21"/>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="31"/>
-      <c r="B249" s="32"/>
+      <c r="A249" s="20"/>
+      <c r="B249" s="21"/>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="31"/>
-      <c r="B250" s="32"/>
+      <c r="A250" s="20"/>
+      <c r="B250" s="21"/>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="31"/>
-      <c r="B251" s="32"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="21"/>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="31"/>
-      <c r="B252" s="32"/>
+      <c r="A252" s="20"/>
+      <c r="B252" s="21"/>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="31"/>
-      <c r="B253" s="32"/>
+      <c r="A253" s="20"/>
+      <c r="B253" s="21"/>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="31"/>
-      <c r="B254" s="32"/>
+      <c r="A254" s="20"/>
+      <c r="B254" s="21"/>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="31"/>
-      <c r="B255" s="32"/>
+      <c r="A255" s="20"/>
+      <c r="B255" s="21"/>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="31"/>
-      <c r="B256" s="32"/>
+      <c r="A256" s="20"/>
+      <c r="B256" s="21"/>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="31"/>
-      <c r="B257" s="32"/>
+      <c r="A257" s="20"/>
+      <c r="B257" s="21"/>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="31"/>
-      <c r="B258" s="32"/>
+      <c r="A258" s="20"/>
+      <c r="B258" s="21"/>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="31"/>
-      <c r="B259" s="32"/>
+      <c r="A259" s="20"/>
+      <c r="B259" s="21"/>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="31"/>
-      <c r="B260" s="32"/>
+      <c r="A260" s="20"/>
+      <c r="B260" s="21"/>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="31"/>
-      <c r="B261" s="32"/>
+      <c r="A261" s="20"/>
+      <c r="B261" s="21"/>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="31"/>
-      <c r="B262" s="32"/>
+      <c r="A262" s="20"/>
+      <c r="B262" s="21"/>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="31"/>
-      <c r="B263" s="32"/>
+      <c r="A263" s="20"/>
+      <c r="B263" s="21"/>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="31"/>
-      <c r="B264" s="32"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="21"/>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="31"/>
-      <c r="B265" s="32"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="21"/>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="31"/>
-      <c r="B266" s="32"/>
+      <c r="A266" s="20"/>
+      <c r="B266" s="21"/>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="31"/>
-      <c r="B267" s="32"/>
+      <c r="A267" s="20"/>
+      <c r="B267" s="21"/>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="31"/>
-      <c r="B268" s="32"/>
-    </row>
-    <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="31"/>
-      <c r="B269" s="32"/>
+      <c r="A268" s="20"/>
+      <c r="B268" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A145:A167"/>
-    <mergeCell ref="A168:A194"/>
-    <mergeCell ref="A195:A201"/>
-    <mergeCell ref="A202:A205"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="A51:A81"/>
-    <mergeCell ref="A82:A107"/>
-    <mergeCell ref="A108:A130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A215:A223"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A194:A200"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A214:A222"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="A19:A25"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A50:A80"/>
+    <mergeCell ref="A81:A106"/>
+    <mergeCell ref="A107:A129"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A133:A143"/>
+    <mergeCell ref="A144:A166"/>
+    <mergeCell ref="A167:A193"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/Report/Chek-list.xlsx
+++ b/Report/Chek-list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="229">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -5804,9 +5804,6 @@
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>Пройден</t>
   </si>
   <si>
     <t>fall</t>
@@ -5899,7 +5896,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5984,6 +5981,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6050,18 +6053,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6114,36 +6105,6 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6158,9 +6119,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6177,9 +6135,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6191,6 +6146,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6412,8 +6415,8 @@
   </sheetPr>
   <dimension ref="A1:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:D207"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6428,395 +6431,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>228</v>
+      <c r="D3" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>228</v>
+      <c r="D4" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>228</v>
+      <c r="D5" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>229</v>
+      <c r="C6" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>229</v>
+      <c r="C7" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>229</v>
+      <c r="C8" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>228</v>
+      <c r="C9" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>228</v>
+      <c r="C10" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>229</v>
+      <c r="C11" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>228</v>
+      <c r="C12" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="44" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>228</v>
+      <c r="C13" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>229</v>
+      <c r="C14" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>229</v>
+      <c r="C15" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>229</v>
+      <c r="C16" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="38"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>229</v>
+      <c r="C17" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="38"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>229</v>
+      <c r="C18" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>229</v>
+      <c r="C19" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>228</v>
+      <c r="C20" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>229</v>
+      <c r="C21" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>229</v>
+      <c r="C22" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>229</v>
+      <c r="C23" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>229</v>
+      <c r="C24" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A26" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="27" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="29" t="s">
+    <row r="30" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="31" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>229</v>
+      <c r="C31" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>228</v>
+      <c r="C32" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>227</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6841,15 +6844,15 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>229</v>
+      <c r="C33" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -6874,2361 +6877,2364 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="38"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>229</v>
+      <c r="C34" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="38"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>229</v>
+      <c r="C35" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="38"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>229</v>
+      <c r="C36" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>228</v>
+      <c r="C37" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>228</v>
+      <c r="C38" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>229</v>
+      <c r="C39" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>228</v>
+      <c r="C40" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="38"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>229</v>
+      <c r="C41" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>228</v>
+      <c r="C42" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>229</v>
+      <c r="C43" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>229</v>
+      <c r="C44" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>229</v>
+      <c r="C45" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>229</v>
+      <c r="C46" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:25" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>229</v>
+      <c r="C47" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:25" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>229</v>
+      <c r="C48" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A52" s="49"/>
+      <c r="B52" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="49"/>
+      <c r="B53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A54" s="49"/>
+      <c r="B54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="49"/>
+      <c r="B55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="49"/>
+      <c r="B56" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="49"/>
+      <c r="B57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A58" s="49"/>
+      <c r="B58" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
+      <c r="B59" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="49"/>
+      <c r="B60" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A61" s="49"/>
+      <c r="B61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A62" s="49"/>
+      <c r="B62" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A63" s="49"/>
+      <c r="B63" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A64" s="49"/>
+      <c r="B64" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A65" s="49"/>
+      <c r="B65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A66" s="49"/>
+      <c r="B66" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A67" s="49"/>
+      <c r="B67" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="49"/>
+      <c r="B68" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="49"/>
+      <c r="B69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A70" s="49"/>
+      <c r="B70" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A71" s="49"/>
+      <c r="B71" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A72" s="49"/>
+      <c r="B72" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="49"/>
+      <c r="B73" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A74" s="49"/>
+      <c r="B74" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A75" s="49"/>
+      <c r="B75" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A76" s="49"/>
+      <c r="B76" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D76" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="49"/>
+      <c r="B77" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="49"/>
+      <c r="B78" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="49"/>
+      <c r="B79" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="49"/>
+      <c r="B80" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A81" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="56" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A52" s="36"/>
-      <c r="B52" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="36"/>
-      <c r="B53" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A54" s="36"/>
-      <c r="B54" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="36"/>
-      <c r="B55" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="36"/>
-      <c r="B57" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A58" s="36"/>
-      <c r="B58" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="36"/>
-      <c r="B59" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="36"/>
-      <c r="B60" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A61" s="36"/>
-      <c r="B61" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
-      <c r="B62" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A63" s="36"/>
-      <c r="B63" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A64" s="36"/>
-      <c r="B64" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A65" s="36"/>
-      <c r="B65" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A66" s="36"/>
-      <c r="B66" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A67" s="36"/>
-      <c r="B67" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="36"/>
-      <c r="B68" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="36"/>
-      <c r="B69" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A70" s="36"/>
-      <c r="B70" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A71" s="36"/>
-      <c r="B71" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A72" s="36"/>
-      <c r="B72" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
-      <c r="B73" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A74" s="36"/>
-      <c r="B74" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A75" s="36"/>
-      <c r="B75" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A76" s="36"/>
-      <c r="B76" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="36"/>
-      <c r="B77" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="36"/>
-      <c r="B78" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="36"/>
-      <c r="B79" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="36"/>
-      <c r="B80" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A81" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
     <row r="82" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="12" t="s">
+      <c r="A82" s="53"/>
+      <c r="B82" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D82" s="29" t="s">
+      <c r="C82" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="12" t="s">
+      <c r="A83" s="53"/>
+      <c r="B83" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C83" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>227</v>
+      <c r="C83" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="53"/>
+      <c r="B84" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="C84" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D84" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="12" t="s">
+      <c r="A85" s="53"/>
+      <c r="B85" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C85" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D85" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="12" t="s">
+      <c r="A86" s="53"/>
+      <c r="B86" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C86" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>227</v>
+      <c r="C86" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D86" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="34"/>
-      <c r="B87" s="12" t="s">
+      <c r="A87" s="53"/>
+      <c r="B87" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C87" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D87" s="30" t="s">
-        <v>227</v>
+      <c r="C87" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D87" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34"/>
-      <c r="B88" s="12" t="s">
+      <c r="A88" s="53"/>
+      <c r="B88" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>227</v>
+      <c r="C88" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A89" s="34"/>
-      <c r="B89" s="12" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C89" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>227</v>
+      <c r="C89" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A90" s="34"/>
-      <c r="B90" s="12" t="s">
+      <c r="A90" s="53"/>
+      <c r="B90" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C90" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D90" s="30" t="s">
+      <c r="C90" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A91" s="34"/>
-      <c r="B91" s="12" t="s">
+      <c r="A91" s="53"/>
+      <c r="B91" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D91" s="31" t="s">
+      <c r="C91" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D91" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A92" s="34"/>
-      <c r="B92" s="13" t="s">
+      <c r="A92" s="53"/>
+      <c r="B92" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D92" s="31" t="s">
+      <c r="C92" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D92" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A93" s="34"/>
-      <c r="B93" s="12" t="s">
+      <c r="A93" s="53"/>
+      <c r="B93" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C93" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="31" t="s">
+      <c r="C93" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D93" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A94" s="34"/>
-      <c r="B94" s="12" t="s">
+      <c r="A94" s="53"/>
+      <c r="B94" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C94" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D94" s="29" t="s">
+      <c r="C94" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="34"/>
-      <c r="B95" s="12" t="s">
+      <c r="A95" s="53"/>
+      <c r="B95" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D95" s="29" t="s">
+      <c r="C95" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A96" s="34"/>
-      <c r="B96" s="12" t="s">
+      <c r="A96" s="53"/>
+      <c r="B96" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D96" s="29" t="s">
+      <c r="C96" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D96" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A97" s="34"/>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C97" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="30" t="s">
+      <c r="C97" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D97" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A98" s="34"/>
-      <c r="B98" s="12" t="s">
+      <c r="A98" s="53"/>
+      <c r="B98" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="C98" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" s="30" t="s">
+      <c r="C98" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A99" s="34"/>
-      <c r="B99" s="12" t="s">
+      <c r="A99" s="53"/>
+      <c r="B99" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C99" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" s="30" t="s">
+      <c r="C99" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="34"/>
-      <c r="B100" s="12" t="s">
+      <c r="A100" s="53"/>
+      <c r="B100" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C100" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D100" s="30" t="s">
+      <c r="C100" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D100" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="34"/>
-      <c r="B101" s="12" t="s">
+      <c r="A101" s="53"/>
+      <c r="B101" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C101" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D101" s="30" t="s">
+      <c r="C101" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D101" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="34"/>
-      <c r="B102" s="12" t="s">
+      <c r="A102" s="53"/>
+      <c r="B102" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="C102" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="30" t="s">
+      <c r="C102" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="34"/>
-      <c r="B103" s="12" t="s">
+      <c r="A103" s="53"/>
+      <c r="B103" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C103" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D103" s="30" t="s">
-        <v>227</v>
+      <c r="C103" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D103" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="34"/>
-      <c r="B104" s="12" t="s">
+      <c r="A104" s="53"/>
+      <c r="B104" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>227</v>
+      <c r="C104" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A105" s="34"/>
-      <c r="B105" s="12" t="s">
+      <c r="A105" s="53"/>
+      <c r="B105" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="C105" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="34"/>
-      <c r="B106" s="12" t="s">
+      <c r="A106" s="53"/>
+      <c r="B106" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="31" t="s">
+      <c r="C106" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="56" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D107" s="29" t="s">
+      <c r="C107" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="10" t="s">
+      <c r="A108" s="44"/>
+      <c r="B108" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C108" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>227</v>
+      <c r="C108" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="10" t="s">
+      <c r="A109" s="44"/>
+      <c r="B109" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C109" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D109" s="29" t="s">
-        <v>227</v>
+      <c r="C109" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="44"/>
+      <c r="B110" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D110" s="30" t="s">
-        <v>227</v>
+      <c r="C110" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="10" t="s">
+      <c r="A111" s="44"/>
+      <c r="B111" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111" s="30" t="s">
-        <v>227</v>
+      <c r="C111" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A112" s="39"/>
-      <c r="B112" s="10" t="s">
+      <c r="A112" s="44"/>
+      <c r="B112" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D112" s="30" t="s">
-        <v>227</v>
+      <c r="C112" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
-      <c r="B113" s="10" t="s">
+      <c r="A113" s="44"/>
+      <c r="B113" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D113" s="30" t="s">
+      <c r="C113" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="11" t="s">
+      <c r="A114" s="44"/>
+      <c r="B114" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D114" s="30" t="s">
+      <c r="C114" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D114" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
-      <c r="B115" s="10" t="s">
+      <c r="A115" s="44"/>
+      <c r="B115" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D115" s="30" t="s">
+      <c r="C115" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D115" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="10" t="s">
+      <c r="A116" s="44"/>
+      <c r="B116" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D116" s="30" t="s">
-        <v>227</v>
+      <c r="C116" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
-      <c r="B117" s="10" t="s">
+      <c r="A117" s="44"/>
+      <c r="B117" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D117" s="31" t="s">
+      <c r="C117" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
-      <c r="B118" s="10" t="s">
+      <c r="A118" s="44"/>
+      <c r="B118" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C118" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D118" s="31" t="s">
+      <c r="C118" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D118" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A119" s="39"/>
-      <c r="B119" s="10" t="s">
+      <c r="A119" s="44"/>
+      <c r="B119" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D119" s="31" t="s">
+      <c r="C119" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D119" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="10" t="s">
+      <c r="A120" s="44"/>
+      <c r="B120" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D120" s="29" t="s">
-        <v>227</v>
+      <c r="C120" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
-      <c r="B121" s="10" t="s">
+      <c r="A121" s="44"/>
+      <c r="B121" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D121" s="29" t="s">
+      <c r="C121" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D121" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="44"/>
+      <c r="B122" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C122" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D122" s="29" t="s">
+      <c r="C122" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="10" t="s">
+      <c r="A123" s="44"/>
+      <c r="B123" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D123" s="30" t="s">
+      <c r="C123" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D123" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="10" t="s">
+      <c r="A124" s="44"/>
+      <c r="B124" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D124" s="30" t="s">
+      <c r="C124" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="44"/>
+      <c r="B125" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C125" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D125" s="30" t="s">
+      <c r="C125" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="10" t="s">
+      <c r="A126" s="44"/>
+      <c r="B126" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C126" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D126" s="30" t="s">
+      <c r="C126" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D126" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A127" s="39"/>
-      <c r="B127" s="10" t="s">
+      <c r="A127" s="44"/>
+      <c r="B127" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D127" s="30" t="s">
+      <c r="C127" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D127" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="44"/>
+      <c r="B128" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C128" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D128" s="30" t="s">
+      <c r="C128" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D128" s="27" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39"/>
-      <c r="B129" s="10" t="s">
+      <c r="A129" s="44"/>
+      <c r="B129" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C129" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D129" s="30" t="s">
-        <v>227</v>
+      <c r="C129" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="36" t="s">
+      <c r="A130" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C130" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>228</v>
+      <c r="C130" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="36"/>
-      <c r="B131" s="14" t="s">
+      <c r="A131" s="49"/>
+      <c r="B131" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" s="29" t="s">
-        <v>228</v>
+      <c r="C131" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D131" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="36"/>
-      <c r="B132" s="14" t="s">
+      <c r="A132" s="49"/>
+      <c r="B132" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C132" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" s="29" t="s">
-        <v>228</v>
+      <c r="C132" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="54" t="s">
+      <c r="B133" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C133" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D133" s="56" t="s">
-        <v>228</v>
+      <c r="C133" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="54" t="s">
+      <c r="A134" s="50"/>
+      <c r="B134" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C134" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D134" s="56" t="s">
-        <v>228</v>
+      <c r="C134" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D134" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="53"/>
-      <c r="B135" s="54" t="s">
+      <c r="A135" s="50"/>
+      <c r="B135" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="C135" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D135" s="56" t="s">
-        <v>228</v>
+      <c r="C135" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D135" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="53"/>
-      <c r="B136" s="54" t="s">
+      <c r="A136" s="50"/>
+      <c r="B136" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C136" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D136" s="56" t="s">
-        <v>228</v>
+      <c r="C136" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="53"/>
-      <c r="B137" s="54" t="s">
+      <c r="A137" s="50"/>
+      <c r="B137" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="C137" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D137" s="56" t="s">
-        <v>228</v>
+      <c r="C137" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D137" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="53"/>
-      <c r="B138" s="54" t="s">
+      <c r="A138" s="50"/>
+      <c r="B138" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C138" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" s="56" t="s">
-        <v>228</v>
+      <c r="C138" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D138" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
-      <c r="B139" s="54" t="s">
+      <c r="A139" s="50"/>
+      <c r="B139" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C139" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D139" s="56" t="s">
-        <v>228</v>
+      <c r="C139" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A140" s="53"/>
-      <c r="B140" s="54" t="s">
+      <c r="A140" s="50"/>
+      <c r="B140" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D140" s="56" t="s">
-        <v>228</v>
+      <c r="C140" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D140" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="53"/>
-      <c r="B141" s="54" t="s">
+      <c r="A141" s="50"/>
+      <c r="B141" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="C141" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D141" s="56" t="s">
-        <v>228</v>
+      <c r="C141" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D141" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="53"/>
-      <c r="B142" s="54" t="s">
+      <c r="A142" s="50"/>
+      <c r="B142" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C142" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D142" s="56" t="s">
-        <v>228</v>
+      <c r="C142" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D142" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="53"/>
-      <c r="B143" s="54" t="s">
+      <c r="A143" s="50"/>
+      <c r="B143" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C143" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="D143" s="56" t="s">
-        <v>228</v>
+      <c r="C143" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D143" s="40" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A144" s="37" t="s">
+      <c r="A144" s="43" t="s">
         <v>222</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C144" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D144" s="30" t="s">
-        <v>228</v>
+      <c r="C144" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A145" s="37"/>
+      <c r="A145" s="43"/>
       <c r="B145" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C145" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D145" s="30" t="s">
-        <v>228</v>
+      <c r="C145" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D145" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A146" s="37"/>
+      <c r="A146" s="43"/>
       <c r="B146" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C146" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D146" s="30" t="s">
-        <v>228</v>
+      <c r="C146" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="37"/>
+      <c r="A147" s="43"/>
       <c r="B147" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C147" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D147" s="30" t="s">
-        <v>228</v>
+      <c r="C147" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D147" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A148" s="37"/>
+      <c r="A148" s="43"/>
       <c r="B148" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C148" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D148" s="30" t="s">
-        <v>228</v>
+      <c r="C148" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D148" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A149" s="37"/>
+      <c r="A149" s="43"/>
       <c r="B149" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C149" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="30" t="s">
-        <v>228</v>
+      <c r="C149" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="37"/>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="43"/>
+      <c r="B150" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C150" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D150" s="30" t="s">
-        <v>228</v>
+      <c r="C150" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D150" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A151" s="37"/>
+      <c r="A151" s="43"/>
       <c r="B151" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C151" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D151" s="30" t="s">
-        <v>228</v>
+      <c r="C151" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D151" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A152" s="37"/>
+      <c r="A152" s="43"/>
       <c r="B152" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C152" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D152" s="30" t="s">
-        <v>228</v>
+      <c r="C152" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D152" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A153" s="37"/>
+      <c r="A153" s="43"/>
       <c r="B153" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C153" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D153" s="30" t="s">
-        <v>228</v>
+      <c r="C153" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D153" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A154" s="37"/>
+      <c r="A154" s="43"/>
       <c r="B154" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C154" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D154" s="30" t="s">
-        <v>228</v>
+      <c r="C154" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D154" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A155" s="37"/>
+      <c r="A155" s="43"/>
       <c r="B155" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C155" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D155" s="30" t="s">
-        <v>228</v>
+      <c r="C155" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D155" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A156" s="37"/>
+      <c r="A156" s="43"/>
       <c r="B156" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C156" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D156" s="30" t="s">
-        <v>228</v>
+      <c r="C156" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D156" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A157" s="37"/>
+      <c r="A157" s="43"/>
       <c r="B157" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C157" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D157" s="30" t="s">
-        <v>228</v>
+      <c r="C157" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D157" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="37"/>
+      <c r="A158" s="43"/>
       <c r="B158" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C158" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D158" s="30" t="s">
-        <v>228</v>
+      <c r="C158" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D158" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
+      <c r="A159" s="43"/>
       <c r="B159" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C159" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D159" s="30" t="s">
-        <v>228</v>
+      <c r="C159" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="37"/>
+      <c r="A160" s="43"/>
       <c r="B160" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C160" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D160" s="30" t="s">
-        <v>228</v>
+      <c r="C160" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="37"/>
+      <c r="A161" s="43"/>
       <c r="B161" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C161" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D161" s="30" t="s">
-        <v>228</v>
+      <c r="C161" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D161" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="37"/>
+      <c r="A162" s="43"/>
       <c r="B162" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C162" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D162" s="30" t="s">
-        <v>228</v>
+      <c r="C162" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D162" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A163" s="37"/>
+      <c r="A163" s="43"/>
       <c r="B163" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C163" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D163" s="30" t="s">
-        <v>228</v>
+      <c r="C163" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="37"/>
+      <c r="A164" s="43"/>
       <c r="B164" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C164" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>228</v>
+      <c r="C164" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D164" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A165" s="37"/>
+      <c r="A165" s="43"/>
       <c r="B165" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C165" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D165" s="30" t="s">
-        <v>228</v>
+      <c r="C165" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A166" s="37"/>
+      <c r="A166" s="43"/>
       <c r="B166" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C166" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D166" s="30" t="s">
-        <v>228</v>
+      <c r="C166" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A167" s="41" t="s">
+      <c r="A167" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C167" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D167" s="29" t="s">
-        <v>228</v>
+      <c r="C167" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="41"/>
-      <c r="B168" s="14" t="s">
+      <c r="A168" s="51"/>
+      <c r="B168" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C168" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D168" s="29" t="s">
-        <v>228</v>
+      <c r="C168" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A169" s="41"/>
-      <c r="B169" s="14" t="s">
+      <c r="A169" s="51"/>
+      <c r="B169" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C169" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D169" s="29" t="s">
-        <v>228</v>
+      <c r="C169" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D169" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A170" s="41"/>
-      <c r="B170" s="14" t="s">
+      <c r="A170" s="51"/>
+      <c r="B170" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D170" s="29" t="s">
-        <v>228</v>
+      <c r="C170" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D170" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A171" s="41"/>
-      <c r="B171" s="14" t="s">
+      <c r="A171" s="51"/>
+      <c r="B171" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D171" s="29" t="s">
-        <v>228</v>
+      <c r="C171" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D171" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A172" s="41"/>
-      <c r="B172" s="14" t="s">
+      <c r="A172" s="51"/>
+      <c r="B172" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C172" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D172" s="29" t="s">
-        <v>228</v>
+      <c r="C172" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A173" s="41"/>
-      <c r="B173" s="14" t="s">
+      <c r="A173" s="51"/>
+      <c r="B173" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C173" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D173" s="29" t="s">
-        <v>228</v>
+      <c r="C173" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A174" s="41"/>
-      <c r="B174" s="14" t="s">
+      <c r="A174" s="51"/>
+      <c r="B174" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C174" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D174" s="29" t="s">
-        <v>228</v>
+      <c r="C174" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D174" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="41"/>
-      <c r="B175" s="14" t="s">
+      <c r="A175" s="51"/>
+      <c r="B175" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C175" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D175" s="29" t="s">
-        <v>228</v>
+      <c r="C175" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D175" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A176" s="41"/>
-      <c r="B176" s="14" t="s">
+      <c r="A176" s="51"/>
+      <c r="B176" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C176" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D176" s="29" t="s">
-        <v>228</v>
+      <c r="C176" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A177" s="41"/>
-      <c r="B177" s="14" t="s">
+      <c r="A177" s="51"/>
+      <c r="B177" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C177" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D177" s="29" t="s">
-        <v>228</v>
+      <c r="C177" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D177" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A178" s="41"/>
-      <c r="B178" s="14" t="s">
+      <c r="A178" s="51"/>
+      <c r="B178" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C178" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D178" s="29" t="s">
-        <v>228</v>
+      <c r="C178" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D178" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A179" s="41"/>
-      <c r="B179" s="14" t="s">
+      <c r="A179" s="51"/>
+      <c r="B179" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C179" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D179" s="29" t="s">
-        <v>228</v>
+      <c r="C179" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D179" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A180" s="41"/>
-      <c r="B180" s="14" t="s">
+      <c r="A180" s="51"/>
+      <c r="B180" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C180" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>228</v>
+      <c r="C180" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A181" s="41"/>
-      <c r="B181" s="14" t="s">
+      <c r="A181" s="51"/>
+      <c r="B181" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C181" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>228</v>
+      <c r="C181" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D181" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A182" s="41"/>
-      <c r="B182" s="14" t="s">
+      <c r="A182" s="51"/>
+      <c r="B182" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C182" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>228</v>
+      <c r="C182" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D182" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A183" s="41"/>
-      <c r="B183" s="14" t="s">
+      <c r="A183" s="51"/>
+      <c r="B183" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C183" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D183" s="29" t="s">
-        <v>228</v>
+      <c r="C183" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A184" s="41"/>
-      <c r="B184" s="14" t="s">
+      <c r="A184" s="51"/>
+      <c r="B184" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C184" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D184" s="29" t="s">
-        <v>228</v>
+      <c r="C184" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D184" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A185" s="41"/>
-      <c r="B185" s="14" t="s">
+      <c r="A185" s="51"/>
+      <c r="B185" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C185" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D185" s="29" t="s">
-        <v>228</v>
+      <c r="C185" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D185" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A186" s="41"/>
-      <c r="B186" s="14" t="s">
+      <c r="A186" s="51"/>
+      <c r="B186" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C186" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D186" s="29" t="s">
-        <v>228</v>
+      <c r="C186" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D186" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="41"/>
-      <c r="B187" s="14" t="s">
+      <c r="A187" s="51"/>
+      <c r="B187" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C187" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D187" s="29" t="s">
-        <v>228</v>
+      <c r="C187" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D187" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="41"/>
-      <c r="B188" s="14" t="s">
+      <c r="A188" s="51"/>
+      <c r="B188" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C188" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D188" s="29" t="s">
-        <v>228</v>
+      <c r="C188" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D188" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="41"/>
-      <c r="B189" s="14" t="s">
+      <c r="A189" s="51"/>
+      <c r="B189" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C189" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D189" s="29" t="s">
-        <v>228</v>
+      <c r="C189" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D189" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="41"/>
-      <c r="B190" s="14" t="s">
+      <c r="A190" s="51"/>
+      <c r="B190" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C190" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D190" s="29" t="s">
-        <v>228</v>
+      <c r="C190" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="41"/>
-      <c r="B191" s="14" t="s">
+      <c r="A191" s="51"/>
+      <c r="B191" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C191" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D191" s="29" t="s">
-        <v>228</v>
+      <c r="C191" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A192" s="41"/>
-      <c r="B192" s="14" t="s">
+      <c r="A192" s="51"/>
+      <c r="B192" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C192" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D192" s="29" t="s">
-        <v>228</v>
+      <c r="C192" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="41"/>
-      <c r="B193" s="14" t="s">
+      <c r="A193" s="51"/>
+      <c r="B193" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C193" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D193" s="29" t="s">
-        <v>228</v>
+      <c r="C193" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D193" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A194" s="40" t="s">
+      <c r="A194" s="42" t="s">
         <v>206</v>
       </c>
       <c r="B194" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C194" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D194" s="52" t="s">
-        <v>228</v>
+      <c r="C194" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D194" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="40"/>
+      <c r="A195" s="42"/>
       <c r="B195" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C195" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D195" s="52" t="s">
-        <v>228</v>
+      <c r="C195" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A196" s="40"/>
+      <c r="A196" s="42"/>
       <c r="B196" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C196" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D196" s="52" t="s">
-        <v>228</v>
+      <c r="C196" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="40"/>
+      <c r="A197" s="42"/>
       <c r="B197" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C197" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D197" s="52" t="s">
-        <v>228</v>
+      <c r="C197" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A198" s="40"/>
+      <c r="A198" s="42"/>
       <c r="B198" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C198" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D198" s="52" t="s">
-        <v>228</v>
+      <c r="C198" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A199" s="40"/>
+      <c r="A199" s="42"/>
       <c r="B199" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C199" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D199" s="52" t="s">
-        <v>228</v>
+      <c r="C199" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="40"/>
+      <c r="A200" s="42"/>
       <c r="B200" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C200" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="D200" s="52" t="s">
-        <v>228</v>
+      <c r="C200" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D200" s="37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="37" t="s">
+      <c r="A201" s="43" t="s">
         <v>214</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C201" s="26" t="s">
+      <c r="C201" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D201" s="30" t="s">
-        <v>228</v>
+      <c r="D201" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="37"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C202" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>229</v>
+      <c r="C202" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="37"/>
+      <c r="A203" s="43"/>
       <c r="B203" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C203" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D203" s="30" t="s">
-        <v>229</v>
+      <c r="C203" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="37"/>
+      <c r="A204" s="43"/>
       <c r="B204" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C204" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="D204" s="30" t="s">
-        <v>229</v>
+      <c r="C204" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="38" t="s">
+      <c r="A205" s="44" t="s">
         <v>224</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C205" s="46" t="s">
+      <c r="C205" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D205" s="31" t="s">
-        <v>229</v>
+      <c r="D205" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="38"/>
+      <c r="A206" s="44"/>
       <c r="B206" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C206" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D206" s="31" t="s">
-        <v>229</v>
+      <c r="C206" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="38"/>
-      <c r="B207" s="57" t="s">
+      <c r="A207" s="44"/>
+      <c r="B207" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="C207" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="D207" s="31" t="s">
-        <v>228</v>
+      <c r="C207" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="16"/>
-      <c r="B208" s="17"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="13"/>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="16"/>
-      <c r="B209" s="17"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="13"/>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="16"/>
-      <c r="B210" s="17"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="13"/>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="16"/>
-      <c r="B211" s="17"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="13"/>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="16"/>
-      <c r="B212" s="17"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="13"/>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="16"/>
-      <c r="B213" s="17"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="13"/>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="33"/>
-      <c r="B214" s="18"/>
+      <c r="A214" s="46"/>
+      <c r="B214" s="14"/>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="33"/>
-      <c r="B215" s="18"/>
+      <c r="A215" s="46"/>
+      <c r="B215" s="14"/>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="33"/>
-      <c r="B216" s="18"/>
+      <c r="A216" s="46"/>
+      <c r="B216" s="14"/>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="33"/>
-      <c r="B217" s="19"/>
+      <c r="A217" s="46"/>
+      <c r="B217" s="15"/>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="33"/>
-      <c r="B218" s="19"/>
+      <c r="A218" s="46"/>
+      <c r="B218" s="15"/>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="33"/>
-      <c r="B219" s="19"/>
+      <c r="A219" s="46"/>
+      <c r="B219" s="15"/>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="33"/>
-      <c r="B220" s="19"/>
+      <c r="A220" s="46"/>
+      <c r="B220" s="15"/>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="33"/>
-      <c r="B221" s="19"/>
+      <c r="A221" s="46"/>
+      <c r="B221" s="15"/>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="33"/>
-      <c r="B222" s="19"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="15"/>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="20"/>
-      <c r="B223" s="21"/>
+      <c r="A223" s="16"/>
+      <c r="B223" s="17"/>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="20"/>
-      <c r="B224" s="21"/>
+      <c r="A224" s="16"/>
+      <c r="B224" s="17"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="20"/>
-      <c r="B225" s="21"/>
+      <c r="A225" s="16"/>
+      <c r="B225" s="17"/>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="20"/>
-      <c r="B226" s="21"/>
+      <c r="A226" s="16"/>
+      <c r="B226" s="17"/>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="20"/>
-      <c r="B227" s="21"/>
+      <c r="A227" s="16"/>
+      <c r="B227" s="17"/>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="20"/>
-      <c r="B228" s="21"/>
+      <c r="A228" s="16"/>
+      <c r="B228" s="17"/>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="20"/>
-      <c r="B229" s="21"/>
+      <c r="A229" s="16"/>
+      <c r="B229" s="17"/>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="20"/>
-      <c r="B230" s="21"/>
+      <c r="A230" s="16"/>
+      <c r="B230" s="17"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="20"/>
-      <c r="B231" s="21"/>
+      <c r="A231" s="16"/>
+      <c r="B231" s="17"/>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="20"/>
-      <c r="B232" s="21"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="17"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="20"/>
-      <c r="B233" s="21"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="17"/>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="20"/>
-      <c r="B234" s="21"/>
+      <c r="A234" s="16"/>
+      <c r="B234" s="17"/>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="20"/>
-      <c r="B235" s="21"/>
+      <c r="A235" s="16"/>
+      <c r="B235" s="17"/>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="20"/>
-      <c r="B236" s="21"/>
+      <c r="A236" s="16"/>
+      <c r="B236" s="17"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="20"/>
-      <c r="B237" s="21"/>
+      <c r="A237" s="16"/>
+      <c r="B237" s="17"/>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="20"/>
-      <c r="B238" s="21"/>
+      <c r="A238" s="16"/>
+      <c r="B238" s="17"/>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="20"/>
-      <c r="B239" s="21"/>
+      <c r="A239" s="16"/>
+      <c r="B239" s="17"/>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="20"/>
-      <c r="B240" s="21"/>
+      <c r="A240" s="16"/>
+      <c r="B240" s="17"/>
     </row>
     <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="20"/>
-      <c r="B241" s="21"/>
+      <c r="A241" s="16"/>
+      <c r="B241" s="17"/>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="20"/>
-      <c r="B242" s="21"/>
+      <c r="A242" s="16"/>
+      <c r="B242" s="17"/>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="20"/>
-      <c r="B243" s="21"/>
+      <c r="A243" s="16"/>
+      <c r="B243" s="17"/>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="20"/>
-      <c r="B244" s="21"/>
+      <c r="A244" s="16"/>
+      <c r="B244" s="17"/>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="20"/>
-      <c r="B245" s="21"/>
+      <c r="A245" s="16"/>
+      <c r="B245" s="17"/>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="20"/>
-      <c r="B246" s="21"/>
+      <c r="A246" s="16"/>
+      <c r="B246" s="17"/>
     </row>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="20"/>
-      <c r="B247" s="21"/>
+      <c r="A247" s="16"/>
+      <c r="B247" s="17"/>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="20"/>
-      <c r="B248" s="21"/>
+      <c r="A248" s="16"/>
+      <c r="B248" s="17"/>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="20"/>
-      <c r="B249" s="21"/>
+      <c r="A249" s="16"/>
+      <c r="B249" s="17"/>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="20"/>
-      <c r="B250" s="21"/>
+      <c r="A250" s="16"/>
+      <c r="B250" s="17"/>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="20"/>
-      <c r="B251" s="21"/>
+      <c r="A251" s="16"/>
+      <c r="B251" s="17"/>
     </row>
     <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="20"/>
-      <c r="B252" s="21"/>
+      <c r="A252" s="16"/>
+      <c r="B252" s="17"/>
     </row>
     <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="20"/>
-      <c r="B253" s="21"/>
+      <c r="A253" s="16"/>
+      <c r="B253" s="17"/>
     </row>
     <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="20"/>
-      <c r="B254" s="21"/>
+      <c r="A254" s="16"/>
+      <c r="B254" s="17"/>
     </row>
     <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="20"/>
-      <c r="B255" s="21"/>
+      <c r="A255" s="16"/>
+      <c r="B255" s="17"/>
     </row>
     <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="20"/>
-      <c r="B256" s="21"/>
+      <c r="A256" s="16"/>
+      <c r="B256" s="17"/>
     </row>
     <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="20"/>
-      <c r="B257" s="21"/>
+      <c r="A257" s="16"/>
+      <c r="B257" s="17"/>
     </row>
     <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="20"/>
-      <c r="B258" s="21"/>
+      <c r="A258" s="16"/>
+      <c r="B258" s="17"/>
     </row>
     <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="20"/>
-      <c r="B259" s="21"/>
+      <c r="A259" s="16"/>
+      <c r="B259" s="17"/>
     </row>
     <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="20"/>
-      <c r="B260" s="21"/>
+      <c r="A260" s="16"/>
+      <c r="B260" s="17"/>
     </row>
     <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="20"/>
-      <c r="B261" s="21"/>
+      <c r="A261" s="16"/>
+      <c r="B261" s="17"/>
     </row>
     <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="20"/>
-      <c r="B262" s="21"/>
+      <c r="A262" s="16"/>
+      <c r="B262" s="17"/>
     </row>
     <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="20"/>
-      <c r="B263" s="21"/>
+      <c r="A263" s="16"/>
+      <c r="B263" s="17"/>
     </row>
     <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="20"/>
-      <c r="B264" s="21"/>
+      <c r="A264" s="16"/>
+      <c r="B264" s="17"/>
     </row>
     <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="20"/>
-      <c r="B265" s="21"/>
+      <c r="A265" s="16"/>
+      <c r="B265" s="17"/>
     </row>
     <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="20"/>
-      <c r="B266" s="21"/>
+      <c r="A266" s="16"/>
+      <c r="B266" s="17"/>
     </row>
     <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="20"/>
-      <c r="B267" s="21"/>
+      <c r="A267" s="16"/>
+      <c r="B267" s="17"/>
     </row>
     <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="20"/>
-      <c r="B268" s="21"/>
+      <c r="A268" s="16"/>
+      <c r="B268" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A133:A143"/>
+    <mergeCell ref="A144:A166"/>
+    <mergeCell ref="A167:A193"/>
     <mergeCell ref="A194:A200"/>
     <mergeCell ref="A201:A204"/>
     <mergeCell ref="A205:A207"/>
@@ -9245,9 +9251,6 @@
     <mergeCell ref="A81:A106"/>
     <mergeCell ref="A107:A129"/>
     <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A133:A143"/>
-    <mergeCell ref="A144:A166"/>
-    <mergeCell ref="A167:A193"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
